--- a/src/test/resources/testdata/DSAlgoTestData.xlsx
+++ b/src/test/resources/testdata/DSAlgoTestData.xlsx
@@ -5,24 +5,26 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\telan\git\dsAlgoBDDSigma\src\test\resources\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SDET208\EclipseWorkspace\DSAlgo_TestNG_Framework\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="933" firstSheet="1" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18012" windowHeight="3372" tabRatio="933" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="DSAlgoLogin" sheetId="1" r:id="rId1"/>
-    <sheet name="DSAlogRegister" sheetId="2" r:id="rId2"/>
-    <sheet name="ArrayTryEditor" sheetId="3" r:id="rId3"/>
-    <sheet name="GraphTryEditor" sheetId="4" r:id="rId4"/>
-    <sheet name="ArrayPracticeQns" sheetId="5" r:id="rId5"/>
-    <sheet name="TreeTryEditor" sheetId="7" r:id="rId6"/>
-    <sheet name="LinkedListTryEditor" sheetId="8" r:id="rId7"/>
-    <sheet name="QueueTryEditor" sheetId="9" r:id="rId8"/>
-    <sheet name="DataStructureTryEditor" sheetId="10" r:id="rId9"/>
-    <sheet name="StackTryEditor" sheetId="11" r:id="rId10"/>
-    <sheet name="Defects" sheetId="6" r:id="rId11"/>
+    <sheet name="HomeDD" sheetId="12" r:id="rId1"/>
+    <sheet name="HomeFlex" sheetId="13" r:id="rId2"/>
+    <sheet name="login" sheetId="1" r:id="rId3"/>
+    <sheet name="register" sheetId="2" r:id="rId4"/>
+    <sheet name="TryEditor" sheetId="3" r:id="rId5"/>
+    <sheet name="GraphTryEditor" sheetId="4" r:id="rId6"/>
+    <sheet name="ArrayPracticeQns" sheetId="5" r:id="rId7"/>
+    <sheet name="TreeTryEditor" sheetId="7" r:id="rId8"/>
+    <sheet name="LinkedListTryEditor" sheetId="8" r:id="rId9"/>
+    <sheet name="QueueTryEditor" sheetId="9" r:id="rId10"/>
+    <sheet name="DataStructureTryEditor" sheetId="10" r:id="rId11"/>
+    <sheet name="StackTryEditor" sheetId="11" r:id="rId12"/>
+    <sheet name="Defects" sheetId="6" r:id="rId13"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="168">
   <si>
     <t>username</t>
   </si>
@@ -55,9 +57,6 @@
   </si>
   <si>
     <t>greenHorn@2024</t>
-  </si>
-  <si>
-    <t>arraySubPage</t>
   </si>
   <si>
     <t>testCase</t>
@@ -560,6 +559,33 @@
   </si>
   <si>
     <t>Max ConsecutiveOnes</t>
+  </si>
+  <si>
+    <t>DDOptions</t>
+  </si>
+  <si>
+    <t>arrays</t>
+  </si>
+  <si>
+    <t>linked list</t>
+  </si>
+  <si>
+    <t>stack</t>
+  </si>
+  <si>
+    <t>queue</t>
+  </si>
+  <si>
+    <t>tree</t>
+  </si>
+  <si>
+    <t>data-structures-introduction</t>
+  </si>
+  <si>
+    <t>Flexes</t>
+  </si>
+  <si>
+    <t>array</t>
   </si>
 </sst>
 </file>
@@ -971,96 +997,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>117</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>118</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>3</v>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1070,6 +1050,343 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="34.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q30" sqref="Q30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I17"/>
   <sheetViews>
@@ -1089,186 +1406,186 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I2" s="19"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I3" s="19"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I4" s="19"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I5" s="19"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I6" s="19"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I7" s="19"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I8" s="19"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I9" s="19"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I10" s="19"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I11" s="19"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I12" s="19"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I13" s="19"/>
     </row>
@@ -1294,11 +1611,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
@@ -1318,1448 +1635,1448 @@
   <sheetData>
     <row r="1" spans="1:8" s="20" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="20" t="s">
+      <c r="E1" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="F1" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="G1" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="H1" s="20" t="s">
         <v>61</v>
-      </c>
-      <c r="H1" s="20" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="E3" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="E4" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="E5" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>71</v>
-      </c>
       <c r="F6" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>71</v>
-      </c>
       <c r="F10" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="E13" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="E14" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C28" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D28" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="E28" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C29" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="E29" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C30" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D30" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="E30" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C31" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D31" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="E31" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C32" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="E32" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C33" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="E33" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C34" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D34" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="E34" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C35" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="E35" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C36" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D36" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="E36" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D37" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="E37" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C38" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D38" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="E38" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C39" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D39" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="E39" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C40" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D40" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="E40" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C41" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="E41" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C43" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D43" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="E43" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C44" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D44" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="E44" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C45" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D45" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="E45" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C49" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D49" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="E49" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C50" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D50" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D50" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="E50" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C51" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D51" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D51" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="E51" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C52" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D52" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="E52" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C57" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D57" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="E57" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C58" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D58" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="E58" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C59" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D59" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="E59" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C60" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D60" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="E60" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C61" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D61" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D61" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="E61" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C62" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D62" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="E62" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C70" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D70" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D70" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="E70" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B71" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="C71" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E71" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="C71" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>157</v>
-      </c>
       <c r="F71" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B72" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="C72" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E72" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="C72" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>157</v>
-      </c>
       <c r="F72" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -2770,10 +3087,165 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2787,7 +3259,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>0</v>
@@ -2796,97 +3268,97 @@
         <v>1</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="D5" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="E5" s="8" t="s">
         <v>125</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C6" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>109</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C7" s="10">
         <v>123456</v>
@@ -2895,24 +3367,24 @@
         <v>123456</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="C8" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>105</v>
-      </c>
       <c r="D8" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2921,245 +3393,70 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>54</v>
       </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="D4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" t="s">
-        <v>55</v>
-      </c>
       <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -3168,7 +3465,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
@@ -3186,122 +3483,122 @@
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -3310,7 +3607,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
@@ -3329,223 +3626,223 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" t="s">
         <v>42</v>
-      </c>
-      <c r="D7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>52</v>
-      </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -3554,7 +3851,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D53"/>
   <sheetViews>
@@ -3572,705 +3869,705 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" t="s">
         <v>75</v>
       </c>
-      <c r="C1" t="s">
-        <v>76</v>
-      </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" t="s">
         <v>77</v>
       </c>
-      <c r="B7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" t="s">
-        <v>78</v>
-      </c>
       <c r="D7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C33" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C35" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C36" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D38" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B39" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C39" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D39" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B40" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C40" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C41" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D42" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C43" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D43" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B44" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C44" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D44" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B45" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C45" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B46" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D46" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C47" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D47" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B48" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C48" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D48" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B49" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C49" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D49" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B50" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D50" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B51" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C51" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D51" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B52" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C52" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D52" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B53" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C53" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D53" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -4279,7 +4576,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D37"/>
   <sheetViews>
@@ -4298,391 +4595,391 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>129</v>
-      </c>
       <c r="D2" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -4708,343 +5005,6 @@
     </row>
     <row r="37" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C37" s="6"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="34.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.77734375" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="20.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>140</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/resources/testdata/DSAlgoTestData.xlsx
+++ b/src/test/resources/testdata/DSAlgoTestData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18012" windowHeight="3372" tabRatio="933" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18012" windowHeight="3372" tabRatio="933" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="HomeDD" sheetId="12" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="177">
   <si>
     <t>username</t>
   </si>
@@ -586,6 +586,33 @@
   </si>
   <si>
     <t>array</t>
+  </si>
+  <si>
+    <t>linked-list</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Array</t>
+  </si>
+  <si>
+    <t>Stack</t>
+  </si>
+  <si>
+    <t>Queue</t>
+  </si>
+  <si>
+    <t>Graph</t>
+  </si>
+  <si>
+    <t>Linked List</t>
+  </si>
+  <si>
+    <t>Tree</t>
+  </si>
+  <si>
+    <t>Data Structures-Introduction</t>
   </si>
 </sst>
 </file>
@@ -997,10 +1024,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="B1" sqref="B1:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1008,39 +1035,60 @@
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B6" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -1799,7 +1847,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>69</v>
       </c>
@@ -3087,52 +3135,76 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B3" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+        <v>168</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B5" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B6" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B7" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>24</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -3145,7 +3217,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3397,7 +3469,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -3470,7 +3542,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/src/test/resources/testdata/DSAlgoTestData.xlsx
+++ b/src/test/resources/testdata/DSAlgoTestData.xlsx
@@ -9,16 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18012" windowHeight="3372" tabRatio="933" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18012" windowHeight="3372" tabRatio="933" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="HomeDD" sheetId="12" r:id="rId1"/>
     <sheet name="HomeFlex" sheetId="13" r:id="rId2"/>
     <sheet name="login" sheetId="1" r:id="rId3"/>
     <sheet name="register" sheetId="2" r:id="rId4"/>
-    <sheet name="TryEditor" sheetId="3" r:id="rId5"/>
+    <sheet name="arrayTryEditor" sheetId="3" r:id="rId5"/>
     <sheet name="GraphTryEditor" sheetId="4" r:id="rId6"/>
-    <sheet name="ArrayPracticeQns" sheetId="5" r:id="rId7"/>
+    <sheet name="arrayPracticeQns" sheetId="5" r:id="rId7"/>
     <sheet name="TreeTryEditor" sheetId="7" r:id="rId8"/>
     <sheet name="LinkedListTryEditor" sheetId="8" r:id="rId9"/>
     <sheet name="QueueTryEditor" sheetId="9" r:id="rId10"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="187">
   <si>
     <t>username</t>
   </si>
@@ -127,12 +127,6 @@
   </si>
   <si>
     <t>VaildCodeSnippet</t>
-  </si>
-  <si>
-    <t>errRun</t>
-  </si>
-  <si>
-    <t>errSubmit</t>
   </si>
   <si>
     <t>Error occurred during submission</t>
@@ -162,12 +156,6 @@
   </si>
   <si>
     <t>search the array</t>
-  </si>
-  <si>
-    <t>max consecutive ones</t>
-  </si>
-  <si>
-    <t>find numbers with even number of digits</t>
   </si>
   <si>
     <t>def findMaxConsecutiveOnes(nums) :</t>
@@ -613,6 +601,48 @@
   </si>
   <si>
     <t>Data Structures-Introduction</t>
+  </si>
+  <si>
+    <t>subLinks</t>
+  </si>
+  <si>
+    <t>validationType</t>
+  </si>
+  <si>
+    <t>EmptyCodeEditor</t>
+  </si>
+  <si>
+    <t>Arrays in Python</t>
+  </si>
+  <si>
+    <t>Basic Operations in Lists</t>
+  </si>
+  <si>
+    <t>Applications of Array</t>
+  </si>
+  <si>
+    <t>NameError</t>
+  </si>
+  <si>
+    <t>Search the array</t>
+  </si>
+  <si>
+    <t>ValidCodeSnippet</t>
+  </si>
+  <si>
+    <t>expectedResultsRun</t>
+  </si>
+  <si>
+    <t>expectedResultsSubmit</t>
+  </si>
+  <si>
+    <t>Max Consecutive Ones</t>
+  </si>
+  <si>
+    <t>Find Numbers with Even Number of Digits</t>
+  </si>
+  <si>
+    <t>Squares of  a Sorted Array</t>
   </si>
 </sst>
 </file>
@@ -1027,7 +1057,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B7"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1037,50 +1067,50 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B3" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B5" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -1088,7 +1118,7 @@
         <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -1116,10 +1146,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>13</v>
@@ -1130,214 +1160,214 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -1364,10 +1394,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>13</v>
@@ -1378,55 +1408,55 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -1454,10 +1484,10 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>13</v>
@@ -1468,172 +1498,172 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I2" s="19"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I3" s="19"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I4" s="19"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="I5" s="19"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I6" s="19"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I7" s="19"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I8" s="19"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="I9" s="19"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I10" s="19"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I11" s="19"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I12" s="19"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="I13" s="19"/>
     </row>
@@ -1683,33 +1713,33 @@
   <sheetData>
     <row r="1" spans="1:8" s="20" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C1" s="20" t="s">
         <v>7</v>
       </c>
       <c r="D1" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" s="20" t="s">
         <v>57</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="H1" s="20" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>18</v>
@@ -1718,10 +1748,10 @@
         <v>9</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>19</v>
@@ -1729,7 +1759,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>10</v>
@@ -1738,10 +1768,10 @@
         <v>9</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>19</v>
@@ -1749,7 +1779,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>11</v>
@@ -1758,10 +1788,10 @@
         <v>9</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>19</v>
@@ -1769,7 +1799,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>12</v>
@@ -1778,10 +1808,10 @@
         <v>9</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>19</v>
@@ -1789,19 +1819,19 @@
     </row>
     <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>19</v>
@@ -1809,19 +1839,19 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>19</v>
@@ -1829,19 +1859,19 @@
     </row>
     <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>19</v>
@@ -1849,19 +1879,19 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>19</v>
@@ -1869,19 +1899,19 @@
     </row>
     <row r="10" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>19</v>
@@ -1889,7 +1919,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>24</v>
@@ -1898,10 +1928,10 @@
         <v>9</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>19</v>
@@ -1909,7 +1939,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>25</v>
@@ -1918,10 +1948,10 @@
         <v>9</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>19</v>
@@ -1929,19 +1959,19 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>19</v>
@@ -1949,19 +1979,19 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>19</v>
@@ -1969,19 +1999,19 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>19</v>
@@ -1989,19 +2019,19 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>19</v>
@@ -2009,19 +2039,19 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>19</v>
@@ -2029,19 +2059,19 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>19</v>
@@ -2049,19 +2079,19 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>19</v>
@@ -2069,19 +2099,19 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>19</v>
@@ -2089,19 +2119,19 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>19</v>
@@ -2109,19 +2139,19 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>19</v>
@@ -2129,19 +2159,19 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>19</v>
@@ -2149,19 +2179,19 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>19</v>
@@ -2169,19 +2199,19 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>19</v>
@@ -2189,19 +2219,19 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>19</v>
@@ -2209,19 +2239,19 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>19</v>
@@ -2229,19 +2259,19 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>19</v>
@@ -2249,19 +2279,19 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>19</v>
@@ -2269,19 +2299,19 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>19</v>
@@ -2289,19 +2319,19 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>19</v>
@@ -2309,19 +2339,19 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>19</v>
@@ -2329,19 +2359,19 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>19</v>
@@ -2349,19 +2379,19 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>19</v>
@@ -2369,19 +2399,19 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>19</v>
@@ -2389,19 +2419,19 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>19</v>
@@ -2409,19 +2439,19 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>19</v>
@@ -2429,19 +2459,19 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>19</v>
@@ -2449,19 +2479,19 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>19</v>
@@ -2469,19 +2499,19 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>19</v>
@@ -2489,19 +2519,19 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>19</v>
@@ -2509,19 +2539,19 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>19</v>
@@ -2529,19 +2559,19 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>19</v>
@@ -2549,19 +2579,19 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>19</v>
@@ -2569,19 +2599,19 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>19</v>
@@ -2589,19 +2619,19 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>19</v>
@@ -2609,19 +2639,19 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>19</v>
@@ -2629,19 +2659,19 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>19</v>
@@ -2649,19 +2679,19 @@
     </row>
     <row r="49" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>19</v>
@@ -2669,19 +2699,19 @@
     </row>
     <row r="50" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F50" s="3" t="s">
         <v>19</v>
@@ -2689,19 +2719,19 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>19</v>
@@ -2709,19 +2739,19 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>19</v>
@@ -2729,19 +2759,19 @@
     </row>
     <row r="53" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F53" s="3" t="s">
         <v>19</v>
@@ -2749,19 +2779,19 @@
     </row>
     <row r="54" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>19</v>
@@ -2769,19 +2799,19 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F55" s="3" t="s">
         <v>19</v>
@@ -2789,19 +2819,19 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F56" s="3" t="s">
         <v>19</v>
@@ -2809,19 +2839,19 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>19</v>
@@ -2829,19 +2859,19 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>19</v>
@@ -2849,19 +2879,19 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>19</v>
@@ -2869,19 +2899,19 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>19</v>
@@ -2889,19 +2919,19 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F61" s="3" t="s">
         <v>19</v>
@@ -2909,19 +2939,19 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>19</v>
@@ -2929,19 +2959,19 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F63" s="3" t="s">
         <v>19</v>
@@ -2949,19 +2979,19 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F64" s="3" t="s">
         <v>19</v>
@@ -2969,19 +2999,19 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F65" s="3" t="s">
         <v>19</v>
@@ -2989,19 +3019,19 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>19</v>
@@ -3009,19 +3039,19 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F67" s="3" t="s">
         <v>19</v>
@@ -3029,19 +3059,19 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F68" s="3" t="s">
         <v>19</v>
@@ -3049,19 +3079,19 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B69" s="3" t="s">
         <v>153</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>157</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F69" s="3" t="s">
         <v>19</v>
@@ -3069,19 +3099,19 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B70" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="B70" s="3" t="s">
-        <v>157</v>
-      </c>
       <c r="C70" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F70" s="3" t="s">
         <v>19</v>
@@ -3089,19 +3119,19 @@
     </row>
     <row r="71" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C71" s="22" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F71" s="3" t="s">
         <v>19</v>
@@ -3109,19 +3139,19 @@
     </row>
     <row r="72" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C72" s="22" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>19</v>
@@ -3137,66 +3167,66 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S19" sqref="S19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -3204,7 +3234,7 @@
         <v>24</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -3216,9 +3246,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3230,7 +3258,7 @@
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -3239,12 +3267,12 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -3253,12 +3281,12 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -3267,12 +3295,12 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -3281,12 +3309,12 @@
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
@@ -3297,7 +3325,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
@@ -3331,7 +3359,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>0</v>
@@ -3340,97 +3368,97 @@
         <v>1</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C7" s="10">
         <v>123456</v>
@@ -3439,24 +3467,24 @@
         <v>123456</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -3467,68 +3495,247 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>49</v>
+        <v>173</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>53</v>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>176</v>
       </c>
       <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>53</v>
+      <c r="D3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>176</v>
       </c>
       <c r="B4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>54</v>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>176</v>
       </c>
       <c r="B5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" t="s">
-        <v>35</v>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -3542,7 +3749,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3558,7 +3765,7 @@
         <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>13</v>
@@ -3572,10 +3779,10 @@
         <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -3583,13 +3790,13 @@
         <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
@@ -3597,13 +3804,13 @@
         <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
@@ -3611,13 +3818,13 @@
         <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -3625,10 +3832,10 @@
         <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -3636,13 +3843,13 @@
         <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
@@ -3650,13 +3857,13 @@
         <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
@@ -3664,13 +3871,13 @@
         <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -3683,8 +3890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3698,223 +3905,223 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>174</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>182</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>180</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>36</v>
+      <c r="A3" s="6" t="s">
+        <v>180</v>
       </c>
       <c r="B3" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
       </c>
       <c r="E3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="B4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="E4" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="A6" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="259.2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" t="s">
+        <v>185</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="A9" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" t="s">
         <v>38</v>
-      </c>
-      <c r="B10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" t="s">
+        <v>186</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="A12" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" t="s">
-        <v>28</v>
+      <c r="A13" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>181</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -3941,13 +4148,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D1" t="s">
         <v>8</v>
@@ -3955,691 +4162,691 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" t="s">
         <v>73</v>
       </c>
-      <c r="B3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" t="s">
-        <v>77</v>
-      </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C12" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D14" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C15" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D15" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C16" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B17" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C17" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D18" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C19" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D19" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B20" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C20" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D20" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C21" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D21" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B23" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C23" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D23" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B24" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C24" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D24" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B25" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C25" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D25" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B26" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D26" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B27" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C27" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D27" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B28" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C28" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D28" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B29" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C29" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D29" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B30" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D30" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B31" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C31" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D31" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B32" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C32" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D32" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B33" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C33" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D33" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B34" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D34" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B35" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C35" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D35" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B36" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C36" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D36" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B37" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C37" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D37" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B38" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D38" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B39" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C39" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D39" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B40" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D40" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B41" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C41" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D41" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B42" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D42" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B43" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C43" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D43" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B44" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C44" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D44" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B45" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C45" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D45" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B46" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D46" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B47" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C47" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D47" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B48" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C48" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D48" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B49" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C49" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D49" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B50" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D50" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B51" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C51" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D51" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B52" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C52" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D52" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B53" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C53" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D53" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -4667,10 +4874,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>13</v>
@@ -4681,377 +4888,377 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="16" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="16" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="16" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="16" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="16" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="16" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="16" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="16" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="16" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="16" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="16" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="16" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">

--- a/src/test/resources/testdata/DSAlgoTestData.xlsx
+++ b/src/test/resources/testdata/DSAlgoTestData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18012" windowHeight="3372" tabRatio="933" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18012" windowHeight="3372" tabRatio="933" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="HomeDD" sheetId="12" r:id="rId1"/>
@@ -17,11 +17,11 @@
     <sheet name="login" sheetId="1" r:id="rId3"/>
     <sheet name="register" sheetId="2" r:id="rId4"/>
     <sheet name="arrayTryEditor" sheetId="3" r:id="rId5"/>
-    <sheet name="GraphTryEditor" sheetId="4" r:id="rId6"/>
-    <sheet name="arrayPracticeQns" sheetId="5" r:id="rId7"/>
-    <sheet name="TreeTryEditor" sheetId="7" r:id="rId8"/>
-    <sheet name="LinkedListTryEditor" sheetId="8" r:id="rId9"/>
-    <sheet name="QueueTryEditor" sheetId="9" r:id="rId10"/>
+    <sheet name="arrayPracticeQns" sheetId="5" r:id="rId6"/>
+    <sheet name="graphTryEditor" sheetId="4" r:id="rId7"/>
+    <sheet name="queueTryEditor" sheetId="9" r:id="rId8"/>
+    <sheet name="TreeTryEditor" sheetId="7" r:id="rId9"/>
+    <sheet name="LinkedListTryEditor" sheetId="8" r:id="rId10"/>
     <sheet name="DataStructureTryEditor" sheetId="10" r:id="rId11"/>
     <sheet name="StackTryEditor" sheetId="11" r:id="rId12"/>
     <sheet name="Defects" sheetId="6" r:id="rId13"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="185">
   <si>
     <t>username</t>
   </si>
@@ -96,9 +96,6 @@
   </si>
   <si>
     <t>Defect</t>
-  </si>
-  <si>
-    <t>graphSubPage</t>
   </si>
   <si>
     <t># Print numbers from 1 to 10
@@ -483,9 +480,6 @@
     <t xml:space="preserve">Deletion </t>
   </si>
   <si>
-    <t>queueSubPage</t>
-  </si>
-  <si>
     <t>Implementation of Queue in python</t>
   </si>
   <si>
@@ -501,9 +495,6 @@
     <t>Queue Operations</t>
   </si>
   <si>
-    <t xml:space="preserve"> OutputDisplayed </t>
-  </si>
-  <si>
     <t>datastructureSubPage</t>
   </si>
   <si>
@@ -643,6 +634,9 @@
   </si>
   <si>
     <t>Squares of  a Sorted Array</t>
+  </si>
+  <si>
+    <t>Graph Representations</t>
   </si>
 </sst>
 </file>
@@ -1067,58 +1061,58 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B5" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -1129,246 +1123,433 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.77734375" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="6"/>
+    <col min="1" max="1" width="33.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.77734375" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.21875" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="A1" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="14" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>51</v>
+      <c r="A2" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>49</v>
+      <c r="A3" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>48</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>51</v>
+      <c r="D3" s="16" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B4" s="19" t="s">
+      <c r="A4" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B5" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C5" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="D5" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>51</v>
+      <c r="B6" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="16" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>49</v>
+      <c r="A7" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>48</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>51</v>
+      <c r="D7" s="16" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B8" s="19" t="s">
+      <c r="A8" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="B9" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C9" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>135</v>
+      <c r="D9" s="16" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>51</v>
+      <c r="A10" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="16" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>49</v>
+      <c r="A11" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>48</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>51</v>
+      <c r="D11" s="16" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B12" s="19" t="s">
+      <c r="A12" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="B13" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C13" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>135</v>
+      <c r="D13" s="16" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>51</v>
+      <c r="A14" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>49</v>
+      <c r="A15" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>48</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>51</v>
+      <c r="D15" s="16" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B16" s="19" t="s">
+      <c r="A16" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="B17" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C17" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>139</v>
-      </c>
+      <c r="D17" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C30" s="6"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C31" s="6"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C32" s="6"/>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C33" s="6"/>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C34" s="6"/>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C35" s="6"/>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C36" s="6"/>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C37" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1394,10 +1575,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>13</v>
@@ -1408,55 +1589,55 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -1484,10 +1665,10 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>13</v>
@@ -1498,172 +1679,172 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I2" s="19"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I3" s="19"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I4" s="19"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I5" s="19"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I6" s="19"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I7" s="19"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I8" s="19"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I9" s="19"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I10" s="19"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I11" s="19"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I12" s="19"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I13" s="19"/>
     </row>
@@ -1713,33 +1894,33 @@
   <sheetData>
     <row r="1" spans="1:8" s="20" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C1" s="20" t="s">
         <v>7</v>
       </c>
       <c r="D1" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="F1" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="G1" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="H1" s="20" t="s">
         <v>56</v>
-      </c>
-      <c r="H1" s="20" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>18</v>
@@ -1748,10 +1929,10 @@
         <v>9</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>19</v>
@@ -1759,7 +1940,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>10</v>
@@ -1768,10 +1949,10 @@
         <v>9</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>19</v>
@@ -1779,7 +1960,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>11</v>
@@ -1788,10 +1969,10 @@
         <v>9</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>19</v>
@@ -1799,7 +1980,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>12</v>
@@ -1808,10 +1989,10 @@
         <v>9</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>19</v>
@@ -1819,19 +2000,19 @@
     </row>
     <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>19</v>
@@ -1839,19 +2020,19 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>19</v>
@@ -1859,19 +2040,19 @@
     </row>
     <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>19</v>
@@ -1879,19 +2060,19 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>19</v>
@@ -1899,19 +2080,19 @@
     </row>
     <row r="10" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>19</v>
@@ -1919,19 +2100,19 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>19</v>
@@ -1939,19 +2120,19 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>19</v>
@@ -1959,19 +2140,19 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="E13" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>19</v>
@@ -1979,19 +2160,19 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="E14" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>19</v>
@@ -1999,19 +2180,19 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>19</v>
@@ -2019,19 +2200,19 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>19</v>
@@ -2039,19 +2220,19 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>19</v>
@@ -2059,19 +2240,19 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>19</v>
@@ -2079,19 +2260,19 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>19</v>
@@ -2099,19 +2280,19 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>19</v>
@@ -2119,19 +2300,19 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>19</v>
@@ -2139,19 +2320,19 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>19</v>
@@ -2159,19 +2340,19 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>19</v>
@@ -2179,19 +2360,19 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>19</v>
@@ -2199,19 +2380,19 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>19</v>
@@ -2219,19 +2400,19 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>19</v>
@@ -2239,19 +2420,19 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>19</v>
@@ -2259,19 +2440,19 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C28" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D28" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="E28" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>19</v>
@@ -2279,19 +2460,19 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C29" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="E29" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>19</v>
@@ -2299,19 +2480,19 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C30" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D30" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="E30" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>19</v>
@@ -2319,19 +2500,19 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C31" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D31" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="E31" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>19</v>
@@ -2339,19 +2520,19 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C32" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="E32" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>19</v>
@@ -2359,19 +2540,19 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C33" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="E33" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>19</v>
@@ -2379,19 +2560,19 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C34" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D34" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="E34" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>19</v>
@@ -2399,19 +2580,19 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C35" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="E35" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>19</v>
@@ -2419,19 +2600,19 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C36" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D36" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="E36" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>19</v>
@@ -2439,19 +2620,19 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C37" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D37" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="E37" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>19</v>
@@ -2459,19 +2640,19 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C38" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D38" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="E38" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>19</v>
@@ -2479,19 +2660,19 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C39" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D39" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="E39" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>19</v>
@@ -2499,19 +2680,19 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C40" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D40" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="E40" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>19</v>
@@ -2519,19 +2700,19 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C41" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="E41" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>19</v>
@@ -2539,19 +2720,19 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>19</v>
@@ -2559,19 +2740,19 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C43" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D43" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="E43" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>19</v>
@@ -2579,19 +2760,19 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C44" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D44" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="E44" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>19</v>
@@ -2599,19 +2780,19 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C45" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D45" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="E45" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>19</v>
@@ -2619,19 +2800,19 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>19</v>
@@ -2639,19 +2820,19 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>19</v>
@@ -2659,19 +2840,19 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>19</v>
@@ -2679,19 +2860,19 @@
     </row>
     <row r="49" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C49" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D49" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="E49" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>19</v>
@@ -2699,19 +2880,19 @@
     </row>
     <row r="50" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C50" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D50" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D50" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="E50" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F50" s="3" t="s">
         <v>19</v>
@@ -2719,19 +2900,19 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C51" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D51" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D51" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="E51" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>19</v>
@@ -2739,19 +2920,19 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C52" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D52" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="E52" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>19</v>
@@ -2759,19 +2940,19 @@
     </row>
     <row r="53" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F53" s="3" t="s">
         <v>19</v>
@@ -2779,19 +2960,19 @@
     </row>
     <row r="54" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>19</v>
@@ -2799,19 +2980,19 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F55" s="3" t="s">
         <v>19</v>
@@ -2819,19 +3000,19 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F56" s="3" t="s">
         <v>19</v>
@@ -2839,19 +3020,19 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C57" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D57" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="E57" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>19</v>
@@ -2859,19 +3040,19 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C58" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D58" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="E58" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>19</v>
@@ -2879,19 +3060,19 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C59" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D59" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="E59" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>19</v>
@@ -2899,19 +3080,19 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C60" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D60" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="E60" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>19</v>
@@ -2919,19 +3100,19 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C61" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D61" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D61" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="E61" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F61" s="3" t="s">
         <v>19</v>
@@ -2939,19 +3120,19 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C62" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D62" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="E62" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>19</v>
@@ -2959,19 +3140,19 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F63" s="3" t="s">
         <v>19</v>
@@ -2979,19 +3160,19 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F64" s="3" t="s">
         <v>19</v>
@@ -2999,19 +3180,19 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F65" s="3" t="s">
         <v>19</v>
@@ -3019,19 +3200,19 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>19</v>
@@ -3039,19 +3220,19 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F67" s="3" t="s">
         <v>19</v>
@@ -3059,19 +3240,19 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F68" s="3" t="s">
         <v>19</v>
@@ -3079,19 +3260,19 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F69" s="3" t="s">
         <v>19</v>
@@ -3099,19 +3280,19 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C70" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D70" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D70" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="E70" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F70" s="3" t="s">
         <v>19</v>
@@ -3119,19 +3300,19 @@
     </row>
     <row r="71" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C71" s="22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F71" s="3" t="s">
         <v>19</v>
@@ -3139,19 +3320,19 @@
     </row>
     <row r="72" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C72" s="22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>19</v>
@@ -3168,73 +3349,73 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>163</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -3258,7 +3439,7 @@
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -3267,12 +3448,12 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -3281,12 +3462,12 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -3295,12 +3476,12 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -3309,12 +3490,12 @@
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
@@ -3325,7 +3506,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
@@ -3359,7 +3540,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>0</v>
@@ -3368,97 +3549,97 @@
         <v>1</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="D5" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="E5" s="8" t="s">
         <v>120</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C6" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>104</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C7" s="10">
         <v>123456</v>
@@ -3467,24 +3648,24 @@
         <v>123456</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="C8" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>100</v>
-      </c>
       <c r="D8" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -3497,8 +3678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3511,10 +3692,10 @@
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>13</v>
@@ -3525,35 +3706,35 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
@@ -3564,16 +3745,16 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -3581,11 +3762,11 @@
         <v>10</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3593,13 +3774,13 @@
         <v>10</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3607,7 +3788,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>15</v>
@@ -3621,47 +3802,47 @@
         <v>10</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>15</v>
@@ -3672,50 +3853,50 @@
     </row>
     <row r="13" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>16</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>15</v>
@@ -3726,16 +3907,16 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>16</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -3745,148 +3926,6 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.88671875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
@@ -3905,223 +3944,365 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" t="s">
         <v>37</v>
-      </c>
-      <c r="D7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -4131,6 +4312,254 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="34.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D53"/>
   <sheetViews>
@@ -4148,13 +4577,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" t="s">
         <v>70</v>
-      </c>
-      <c r="C1" t="s">
-        <v>71</v>
       </c>
       <c r="D1" t="s">
         <v>8</v>
@@ -4162,1130 +4591,695 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" t="s">
         <v>72</v>
       </c>
-      <c r="B7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" t="s">
-        <v>73</v>
-      </c>
       <c r="D7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C28" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C29" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C36" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D38" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C39" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D40" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D42" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B43" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C43" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D43" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B44" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C44" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D44" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C45" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D45" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D46" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C47" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D47" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C48" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D48" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C49" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D49" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D50" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B51" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C51" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D51" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B52" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C52" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D52" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B53" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C53" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D53" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D37"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="33.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.77734375" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.21875" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.44140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="15"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="B24" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="D24" s="16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="D25" s="16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="D26" s="16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="B27" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" s="16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="B28" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="D28" s="16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="B29" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="D29" s="16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C30" s="6"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C31" s="6"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C32" s="6"/>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C33" s="6"/>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C34" s="6"/>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C35" s="6"/>
-    </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C36" s="6"/>
-    </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C37" s="6"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/src/test/resources/testdata/DSAlgoTestData.xlsx
+++ b/src/test/resources/testdata/DSAlgoTestData.xlsx
@@ -4316,7 +4316,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
